--- a/database.xlsx
+++ b/database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Nome</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>carne</t>
+  </si>
+  <si>
+    <t>arroz integral</t>
+  </si>
+  <si>
+    <t>carboidrato</t>
   </si>
 </sst>
 </file>
@@ -343,6 +349,29 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25.8</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Nome</t>
   </si>
@@ -47,6 +47,27 @@
   </si>
   <si>
     <t>carboidrato</t>
+  </si>
+  <si>
+    <t>arroz branco</t>
+  </si>
+  <si>
+    <t>leite desnatado</t>
+  </si>
+  <si>
+    <t>bebida</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>caminhada</t>
+  </si>
+  <si>
+    <t>exercícios</t>
+  </si>
+  <si>
+    <t>cardio</t>
   </si>
 </sst>
 </file>
@@ -372,6 +393,75 @@
         <v>25.8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Nome</t>
   </si>
@@ -68,6 +68,42 @@
   </si>
   <si>
     <t>cardio</t>
+  </si>
+  <si>
+    <t>carne bovina moída</t>
+  </si>
+  <si>
+    <t>macarrão</t>
+  </si>
+  <si>
+    <t>chocolate 70%</t>
+  </si>
+  <si>
+    <t>doce</t>
+  </si>
+  <si>
+    <t>amêndoa</t>
+  </si>
+  <si>
+    <t>castanha de caju</t>
+  </si>
+  <si>
+    <t>nozes</t>
+  </si>
+  <si>
+    <t>capuccino</t>
+  </si>
+  <si>
+    <t>pão branco</t>
+  </si>
+  <si>
+    <t>pão integral</t>
+  </si>
+  <si>
+    <t>queijo mussarela</t>
+  </si>
+  <si>
+    <t>proteína</t>
   </si>
 </sst>
 </file>
@@ -462,6 +498,259 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>598.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>535.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>570.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>654.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>247.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
   <si>
     <t>Nome</t>
   </si>
@@ -34,13 +34,19 @@
     <t>Carboidratos</t>
   </si>
   <si>
+    <t>Tipo</t>
+  </si>
+  <si>
     <t>frango grelhado</t>
   </si>
   <si>
     <t>comida</t>
   </si>
   <si>
-    <t>carne</t>
+    <t>proteína</t>
+  </si>
+  <si>
+    <t>alimento</t>
   </si>
   <si>
     <t>arroz integral</t>
@@ -70,6 +76,9 @@
     <t>cardio</t>
   </si>
   <si>
+    <t>exercício</t>
+  </si>
+  <si>
     <t>carne bovina moída</t>
   </si>
   <si>
@@ -79,7 +88,7 @@
     <t>chocolate 70%</t>
   </si>
   <si>
-    <t>doce</t>
+    <t>gordura</t>
   </si>
   <si>
     <t>amêndoa</t>
@@ -103,7 +112,55 @@
     <t>queijo mussarela</t>
   </si>
   <si>
-    <t>proteína</t>
+    <t>presunto</t>
+  </si>
+  <si>
+    <t>ovo</t>
+  </si>
+  <si>
+    <t>azeite de oliva</t>
+  </si>
+  <si>
+    <t>bolo</t>
+  </si>
+  <si>
+    <t>maçã</t>
+  </si>
+  <si>
+    <t>morango</t>
+  </si>
+  <si>
+    <t>batata</t>
+  </si>
+  <si>
+    <t>cenoura</t>
+  </si>
+  <si>
+    <t>sopa</t>
+  </si>
+  <si>
+    <t>sorvete</t>
+  </si>
+  <si>
+    <t>laranja</t>
+  </si>
+  <si>
+    <t>lentilha</t>
+  </si>
+  <si>
+    <t>feijão</t>
+  </si>
+  <si>
+    <t>ervilha</t>
+  </si>
+  <si>
+    <t>doritos</t>
+  </si>
+  <si>
+    <t>batata chips</t>
+  </si>
+  <si>
+    <t>balas de gelatina</t>
   </si>
 </sst>
 </file>
@@ -382,16 +439,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>170.0</v>
@@ -405,16 +465,19 @@
       <c r="G2" s="1">
         <v>0.0</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>124.0</v>
@@ -428,16 +491,19 @@
       <c r="G3" s="1">
         <v>25.8</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>130.0</v>
@@ -451,16 +517,19 @@
       <c r="G4" s="1">
         <v>28.2</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>32.0</v>
@@ -474,16 +543,19 @@
       <c r="G5" s="1">
         <v>49.0</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>5.0</v>
@@ -497,16 +569,19 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>250.0</v>
@@ -520,16 +595,19 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>131.0</v>
@@ -543,16 +621,19 @@
       <c r="G8" s="1">
         <v>25.0</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>598.0</v>
@@ -566,16 +647,19 @@
       <c r="G9" s="1">
         <v>45.9</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>535.0</v>
@@ -589,16 +673,19 @@
       <c r="G10" s="1">
         <v>59.4</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>576.0</v>
@@ -612,16 +699,19 @@
       <c r="G11" s="1">
         <v>21.6</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>570.0</v>
@@ -635,16 +725,19 @@
       <c r="G12" s="1">
         <v>29.1</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>654.0</v>
@@ -658,16 +751,19 @@
       <c r="G13" s="1">
         <v>13.7</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>30.0</v>
@@ -681,16 +777,19 @@
       <c r="G14" s="1">
         <v>4.0</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>256.0</v>
@@ -704,16 +803,19 @@
       <c r="G15" s="1">
         <v>49.0</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1">
         <v>247.0</v>
@@ -727,16 +829,19 @@
       <c r="G16" s="1">
         <v>41.4</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>280.0</v>
@@ -749,6 +854,451 @@
       </c>
       <c r="G17" s="1">
         <v>3.1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>884.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>207.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>536.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>Nome</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>balas de gelatina</t>
+  </si>
+  <si>
+    <t>subir escadas</t>
+  </si>
+  <si>
+    <t>bicicleta ergométrica</t>
+  </si>
+  <si>
+    <t>dança</t>
   </si>
 </sst>
 </file>
@@ -1301,6 +1310,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
